--- a/app/api/docs/fe_ecode/zh_en.xlsx
+++ b/app/api/docs/fe_ecode/zh_en.xlsx
@@ -16,10 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
-  <si>
-    <t>code</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>zh</t>
   </si>
@@ -27,154 +24,55 @@
     <t>en</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>common unknown</t>
   </si>
   <si>
-    <t>400</t>
-  </si>
-  <si>
     <t>无效的请求</t>
   </si>
   <si>
-    <t>Bad request</t>
-  </si>
-  <si>
-    <t>401</t>
-  </si>
-  <si>
     <t>未授权</t>
   </si>
   <si>
-    <t>Not authorized</t>
-  </si>
-  <si>
-    <t>403</t>
-  </si>
-  <si>
     <t>被禁止</t>
   </si>
   <si>
-    <t>Forbidden</t>
-  </si>
-  <si>
-    <t>404</t>
-  </si>
-  <si>
     <t>找不到资源</t>
   </si>
   <si>
-    <t>Not found</t>
-  </si>
-  <si>
-    <t>405</t>
-  </si>
-  <si>
     <t>方法被禁止</t>
   </si>
   <si>
-    <t>Method not allowed</t>
-  </si>
-  <si>
-    <t>408</t>
-  </si>
-  <si>
     <t>请求超时</t>
   </si>
   <si>
-    <t>Request timeout</t>
-  </si>
-  <si>
-    <t>409</t>
-  </si>
-  <si>
     <t>状态冲突</t>
   </si>
   <si>
-    <t>Conflict</t>
-  </si>
-  <si>
-    <t>410</t>
-  </si>
-  <si>
     <t>资源不存在</t>
   </si>
   <si>
-    <t>Resource gone</t>
-  </si>
-  <si>
-    <t>413</t>
-  </si>
-  <si>
     <t>客户端请求的实体过大</t>
   </si>
   <si>
-    <t>Request entity too large</t>
-  </si>
-  <si>
-    <t>416</t>
-  </si>
-  <si>
     <t>客户端请求的范围无效</t>
   </si>
   <si>
-    <t>Range not satisfiable</t>
-  </si>
-  <si>
-    <t>429</t>
-  </si>
-  <si>
     <t>发送了太多请求</t>
   </si>
   <si>
-    <t>Too many requests</t>
-  </si>
-  <si>
-    <t>500</t>
-  </si>
-  <si>
     <t>服务端内部错误</t>
   </si>
   <si>
-    <t>Internal server error</t>
-  </si>
-  <si>
-    <t>501</t>
-  </si>
-  <si>
     <t>服务器不支持请求的功能</t>
   </si>
   <si>
-    <t>Server not implemented this function</t>
-  </si>
-  <si>
-    <t>502</t>
-  </si>
-  <si>
     <t>网关错误</t>
   </si>
   <si>
-    <t>Bad gateway</t>
-  </si>
-  <si>
-    <t>503</t>
-  </si>
-  <si>
     <t>服务器暂时不可用</t>
   </si>
   <si>
-    <t>Service unavailable</t>
-  </si>
-  <si>
-    <t>504</t>
-  </si>
-  <si>
     <t>网关超时</t>
-  </si>
-  <si>
-    <t>Gateway timeout</t>
   </si>
 </sst>
 </file>
@@ -541,7 +439,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -551,7 +449,6 @@
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.5"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="9.5"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="9.5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -561,195 +458,141 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/app/api/docs/fe_ecode/zh_en.xlsx
+++ b/app/api/docs/fe_ecode/zh_en.xlsx
@@ -16,7 +16,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+  <si>
+    <t>code</t>
+  </si>
   <si>
     <t>zh</t>
   </si>
@@ -24,55 +27,154 @@
     <t>en</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
     <t>common unknown</t>
   </si>
   <si>
+    <t>400</t>
+  </si>
+  <si>
     <t>无效的请求</t>
   </si>
   <si>
+    <t>Bad request</t>
+  </si>
+  <si>
+    <t>401</t>
+  </si>
+  <si>
     <t>未授权</t>
   </si>
   <si>
+    <t>Not authorized</t>
+  </si>
+  <si>
+    <t>403</t>
+  </si>
+  <si>
     <t>被禁止</t>
   </si>
   <si>
+    <t>Forbidden</t>
+  </si>
+  <si>
+    <t>404</t>
+  </si>
+  <si>
     <t>找不到资源</t>
   </si>
   <si>
+    <t>Not found</t>
+  </si>
+  <si>
+    <t>405</t>
+  </si>
+  <si>
     <t>方法被禁止</t>
   </si>
   <si>
+    <t>Method not allowed</t>
+  </si>
+  <si>
+    <t>408</t>
+  </si>
+  <si>
     <t>请求超时</t>
   </si>
   <si>
+    <t>Request timeout</t>
+  </si>
+  <si>
+    <t>409</t>
+  </si>
+  <si>
     <t>状态冲突</t>
   </si>
   <si>
+    <t>Conflict</t>
+  </si>
+  <si>
+    <t>410</t>
+  </si>
+  <si>
     <t>资源不存在</t>
   </si>
   <si>
+    <t>Resource gone</t>
+  </si>
+  <si>
+    <t>413</t>
+  </si>
+  <si>
     <t>客户端请求的实体过大</t>
   </si>
   <si>
+    <t>Request entity too large</t>
+  </si>
+  <si>
+    <t>416</t>
+  </si>
+  <si>
     <t>客户端请求的范围无效</t>
   </si>
   <si>
+    <t>Range not satisfiable</t>
+  </si>
+  <si>
+    <t>429</t>
+  </si>
+  <si>
     <t>发送了太多请求</t>
   </si>
   <si>
+    <t>Too many requests</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
     <t>服务端内部错误</t>
   </si>
   <si>
+    <t>Internal server error</t>
+  </si>
+  <si>
+    <t>501</t>
+  </si>
+  <si>
     <t>服务器不支持请求的功能</t>
   </si>
   <si>
+    <t>Server not implemented this function</t>
+  </si>
+  <si>
+    <t>502</t>
+  </si>
+  <si>
     <t>网关错误</t>
   </si>
   <si>
+    <t>Bad gateway</t>
+  </si>
+  <si>
+    <t>503</t>
+  </si>
+  <si>
     <t>服务器暂时不可用</t>
   </si>
   <si>
+    <t>Service unavailable</t>
+  </si>
+  <si>
+    <t>504</t>
+  </si>
+  <si>
     <t>网关超时</t>
+  </si>
+  <si>
+    <t>Gateway timeout</t>
   </si>
 </sst>
 </file>
@@ -439,7 +541,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -449,6 +551,7 @@
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.5"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="9.5"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="9.5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -458,141 +561,195 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>6</v>
+        <v>15</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>9</v>
+        <v>24</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>11</v>
+        <v>30</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>12</v>
+        <v>33</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>13</v>
+        <v>36</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>14</v>
+        <v>39</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>15</v>
+        <v>42</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>16</v>
+        <v>45</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>17</v>
+        <v>48</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>18</v>
+        <v>51</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/app/api/docs/fe_ecode/zh_en.xlsx
+++ b/app/api/docs/fe_ecode/zh_en.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>code</t>
   </si>
@@ -175,6 +175,33 @@
   </si>
   <si>
     <t>Gateway timeout</t>
+  </si>
+  <si>
+    <t>40001</t>
+  </si>
+  <si>
+    <t>需要登录</t>
+  </si>
+  <si>
+    <t>need login</t>
+  </si>
+  <si>
+    <t>40002</t>
+  </si>
+  <si>
+    <t>不支持该操作</t>
+  </si>
+  <si>
+    <t>The operation is not supported</t>
+  </si>
+  <si>
+    <t>40003</t>
+  </si>
+  <si>
+    <t>这个页面被更改过了，请刷新后重试！</t>
+  </si>
+  <si>
+    <t>This page has been modified, please refresh and try again!</t>
   </si>
 </sst>
 </file>
@@ -541,7 +568,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -752,6 +779,39 @@
         <v>52</v>
       </c>
     </row>
+    <row r="19">
+      <c r="A19" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/app/api/docs/fe_ecode/zh_en.xlsx
+++ b/app/api/docs/fe_ecode/zh_en.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>code</t>
   </si>
@@ -202,6 +202,15 @@
   </si>
   <si>
     <t>This page has been modified, please refresh and try again!</t>
+  </si>
+  <si>
+    <t>40004</t>
+  </si>
+  <si>
+    <t>这个页面不是你的或者不存在</t>
+  </si>
+  <si>
+    <t>This page is not yours or not exist</t>
   </si>
 </sst>
 </file>
@@ -568,7 +577,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -812,6 +821,17 @@
         <v>61</v>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/app/api/docs/fe_ecode/zh_en.xlsx
+++ b/app/api/docs/fe_ecode/zh_en.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t>code</t>
   </si>
@@ -211,6 +211,15 @@
   </si>
   <si>
     <t>This page is not yours or not exist</t>
+  </si>
+  <si>
+    <t>40005</t>
+  </si>
+  <si>
+    <t>输入包含不支持的字符</t>
+  </si>
+  <si>
+    <t>The input contains unsupported characters.</t>
   </si>
 </sst>
 </file>
@@ -577,7 +586,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -832,6 +841,17 @@
         <v>64</v>
       </c>
     </row>
+    <row r="23">
+      <c r="A23" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/app/api/docs/fe_ecode/zh_en.xlsx
+++ b/app/api/docs/fe_ecode/zh_en.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <si>
     <t>code</t>
   </si>
@@ -183,7 +183,7 @@
     <t>需要登录</t>
   </si>
   <si>
-    <t>need login</t>
+    <t>Need login</t>
   </si>
   <si>
     <t>40002</t>
@@ -220,6 +220,15 @@
   </si>
   <si>
     <t>The input contains unsupported characters.</t>
+  </si>
+  <si>
+    <t>40006</t>
+  </si>
+  <si>
+    <t>这个页面不是你的或者链接不存在</t>
+  </si>
+  <si>
+    <t>This page is not yours or page link not exist</t>
   </si>
 </sst>
 </file>
@@ -586,7 +595,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -852,6 +861,17 @@
         <v>67</v>
       </c>
     </row>
+    <row r="24">
+      <c r="A24" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/app/api/docs/fe_ecode/zh_en.xlsx
+++ b/app/api/docs/fe_ecode/zh_en.xlsx
@@ -16,10 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
-  <si>
-    <t>code</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>zh</t>
   </si>
@@ -27,208 +24,73 @@
     <t>en</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>common unknown</t>
   </si>
   <si>
-    <t>400</t>
-  </si>
-  <si>
     <t>无效的请求</t>
   </si>
   <si>
-    <t>Bad request</t>
-  </si>
-  <si>
-    <t>401</t>
-  </si>
-  <si>
     <t>未授权</t>
   </si>
   <si>
-    <t>Not authorized</t>
-  </si>
-  <si>
-    <t>403</t>
-  </si>
-  <si>
     <t>被禁止</t>
   </si>
   <si>
-    <t>Forbidden</t>
-  </si>
-  <si>
-    <t>404</t>
-  </si>
-  <si>
     <t>找不到资源</t>
   </si>
   <si>
-    <t>Not found</t>
-  </si>
-  <si>
-    <t>405</t>
-  </si>
-  <si>
     <t>方法被禁止</t>
   </si>
   <si>
-    <t>Method not allowed</t>
-  </si>
-  <si>
-    <t>408</t>
-  </si>
-  <si>
     <t>请求超时</t>
   </si>
   <si>
-    <t>Request timeout</t>
-  </si>
-  <si>
-    <t>409</t>
-  </si>
-  <si>
     <t>状态冲突</t>
   </si>
   <si>
-    <t>Conflict</t>
-  </si>
-  <si>
-    <t>410</t>
-  </si>
-  <si>
     <t>资源不存在</t>
   </si>
   <si>
-    <t>Resource gone</t>
-  </si>
-  <si>
-    <t>413</t>
-  </si>
-  <si>
     <t>客户端请求的实体过大</t>
   </si>
   <si>
-    <t>Request entity too large</t>
-  </si>
-  <si>
-    <t>416</t>
-  </si>
-  <si>
     <t>客户端请求的范围无效</t>
   </si>
   <si>
-    <t>Range not satisfiable</t>
-  </si>
-  <si>
-    <t>429</t>
-  </si>
-  <si>
     <t>发送了太多请求</t>
   </si>
   <si>
-    <t>Too many requests</t>
-  </si>
-  <si>
-    <t>500</t>
-  </si>
-  <si>
     <t>服务端内部错误</t>
   </si>
   <si>
-    <t>Internal server error</t>
-  </si>
-  <si>
-    <t>501</t>
-  </si>
-  <si>
     <t>服务器不支持请求的功能</t>
   </si>
   <si>
-    <t>Server not implemented this function</t>
-  </si>
-  <si>
-    <t>502</t>
-  </si>
-  <si>
     <t>网关错误</t>
   </si>
   <si>
-    <t>Bad gateway</t>
-  </si>
-  <si>
-    <t>503</t>
-  </si>
-  <si>
     <t>服务器暂时不可用</t>
   </si>
   <si>
-    <t>Service unavailable</t>
-  </si>
-  <si>
-    <t>504</t>
-  </si>
-  <si>
     <t>网关超时</t>
   </si>
   <si>
-    <t>Gateway timeout</t>
-  </si>
-  <si>
-    <t>40001</t>
-  </si>
-  <si>
     <t>需要登录</t>
   </si>
   <si>
-    <t>Need login</t>
-  </si>
-  <si>
-    <t>40002</t>
-  </si>
-  <si>
     <t>不支持该操作</t>
   </si>
   <si>
-    <t>The operation is not supported</t>
-  </si>
-  <si>
-    <t>40003</t>
-  </si>
-  <si>
     <t>这个页面被更改过了，请刷新后重试！</t>
   </si>
   <si>
-    <t>This page has been modified, please refresh and try again!</t>
-  </si>
-  <si>
-    <t>40004</t>
-  </si>
-  <si>
     <t>这个页面不是你的或者不存在</t>
   </si>
   <si>
-    <t>This page is not yours or not exist</t>
-  </si>
-  <si>
-    <t>40005</t>
-  </si>
-  <si>
     <t>输入包含不支持的字符</t>
   </si>
   <si>
-    <t>The input contains unsupported characters.</t>
-  </si>
-  <si>
-    <t>40006</t>
-  </si>
-  <si>
     <t>这个页面不是你的或者链接不存在</t>
-  </si>
-  <si>
-    <t>This page is not yours or page link not exist</t>
   </si>
 </sst>
 </file>
@@ -595,7 +457,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -605,7 +467,6 @@
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.5"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="9.5"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="9.5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -615,261 +476,189 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>64</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>67</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>70</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
